--- a/va_facility_data_2025-02-20/Nashville VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Nashville%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Nashville VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Nashville%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rbfe329a3999244498135fe7dd15b042e"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R491a252a7c844f8ca34812b9b52cda97"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R25d37ed6472f40b980e900ed9fd653ef"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R5a9684e3d49240edbc473df906efde4a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R13276cd0efbf467dbf55197f13880b37"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rd57081b15fb44b6eac90fd6767360190"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rda1098e08c3c4972a7ddae641c57c6f6"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R5b7c29f7734d4ca38436760ed2491474"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R44d215cff496468d80c9bd611e18ae16"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R03f5663f63f54110af891957793815b8"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R2546a617f77a4b20bdd1b788de9b24b3"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R6ffd6b8d61c84d56b4ad65110e7eb545"/>
   </x:sheets>
 </x:workbook>
 </file>
